--- a/utility/optbs/template/kartu_persediaan_barang.xlsx
+++ b/utility/optbs/template/kartu_persediaan_barang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lamp. 13" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>LAMPIRAN 13</t>
   </si>
@@ -145,22 +145,34 @@
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>ATASAN LANGSUNG,</t>
-  </si>
-  <si>
-    <t>PENYIMPAN BARANG,</t>
-  </si>
-  <si>
-    <t>(Kasubbag. Umum / Keuangan / Sekretaris Kelurahan)</t>
+    <t>Mengetahui</t>
+  </si>
+  <si>
+    <t>An Pengguna / Kuasa Pengguna Barang</t>
+  </si>
+  <si>
+    <t>Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pejabat Penatausahaan Pengguna Barang</t>
   </si>
   <si>
     <t>([b.nama_atasan])</t>
   </si>
   <si>
+    <t>……………………………………</t>
+  </si>
+  <si>
     <t>([b.nama_penyimpan_barang])</t>
   </si>
   <si>
     <t>NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t>NIP ………………………………</t>
   </si>
   <si>
     <t>NIP. [b.nip_penyimpan_barang]</t>
@@ -228,7 +240,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -290,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,15 +356,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,20 +403,20 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16:J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9378881987578"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3354037267081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.0062111801242"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="15.9378881987578"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.6770186335404"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="15.9378881987578"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.86335403726708"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4347826086957"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.9937888198758"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.9875776397516"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="16.4347826086957"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3354037267081"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="16.4347826086957"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.776397515528"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.0248447204969"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,12 +793,16 @@
       <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="E18" s="0"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="H18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
@@ -777,58 +810,64 @@
       <c r="N18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="E19" s="0"/>
+      <c r="D19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
-      <c r="H19" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="0"/>
       <c r="G20" s="0"/>
-      <c r="H20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="H20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
-      <c r="E22" s="0"/>
+      <c r="D22" s="16"/>
       <c r="F22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
@@ -836,11 +875,12 @@
       <c r="N22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="D23" s="16"/>
       <c r="F23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -848,52 +888,60 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
-      <c r="E24" s="0"/>
+      <c r="D24" s="16"/>
       <c r="F24" s="0"/>
-      <c r="H24" s="0"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="E25" s="0"/>
+      <c r="D25" s="16"/>
       <c r="F25" s="0"/>
-      <c r="H25" s="0"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="H26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14"/>
-      <c r="C27" s="13" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="H27" s="13" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="F26" s="0"/>
+      <c r="H26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="H27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
